--- a/Source Assignment.xlsx
+++ b/Source Assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Math 5545 Project 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64e1b9c56e7ec9ea/Documents/UMKC/MATH 490/GP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05B766B-61B9-4F8F-A771-F108B7568813}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{C05B766B-61B9-4F8F-A771-F108B7568813}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EA941425-AFFF-420B-B559-D0B331580CB0}"/>
   <bookViews>
-    <workbookView xWindow="10755" yWindow="2655" windowWidth="14895" windowHeight="11385" xr2:uid="{7C30F52E-DFEE-471B-868A-F17E658BCBA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C30F52E-DFEE-471B-868A-F17E658BCBA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>High</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Source</t>
+  </si>
+  <si>
+    <t>KCEPS</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,78 +511,221 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>4440</v>
+      </c>
+      <c r="C2">
+        <v>20468</v>
+      </c>
+      <c r="D2">
+        <v>5345</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B3">
+        <v>248</v>
+      </c>
+      <c r="C3">
+        <v>2307</v>
+      </c>
+      <c r="D3">
+        <v>1471</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B4">
+        <v>1030</v>
+      </c>
+      <c r="C4">
+        <v>8929</v>
+      </c>
+      <c r="D4">
+        <v>3438</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B5">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>155</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>410</v>
+      </c>
+      <c r="D6">
+        <v>139</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>341</v>
+      </c>
+      <c r="C8">
+        <v>2441</v>
+      </c>
+      <c r="D8">
+        <v>1025</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Source Assignment.xlsx
+++ b/Source Assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64e1b9c56e7ec9ea/Documents/UMKC/MATH 490/GP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{C05B766B-61B9-4F8F-A771-F108B7568813}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EA941425-AFFF-420B-B559-D0B331580CB0}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{C05B766B-61B9-4F8F-A771-F108B7568813}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{515B0DB1-6551-449F-972A-13399CC3E99F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C30F52E-DFEE-471B-868A-F17E658BCBA7}"/>
+    <workbookView xWindow="1290" yWindow="2910" windowWidth="21600" windowHeight="11385" xr2:uid="{7C30F52E-DFEE-471B-868A-F17E658BCBA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,6 +615,9 @@
       <c r="C9">
         <v>43</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">

--- a/Source Assignment.xlsx
+++ b/Source Assignment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64e1b9c56e7ec9ea/Documents/UMKC/MATH 490/GP1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63d32b2a3de92b0b/Documents/GitHub/gp2/GP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{C05B766B-61B9-4F8F-A771-F108B7568813}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{515B0DB1-6551-449F-972A-13399CC3E99F}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{C05B766B-61B9-4F8F-A771-F108B7568813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{E58618C9-AB96-4EA9-82AF-6BBB9EA3B688}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="2910" windowWidth="21600" windowHeight="11385" xr2:uid="{7C30F52E-DFEE-471B-868A-F17E658BCBA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C30F52E-DFEE-471B-868A-F17E658BCBA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,6 +176,1274 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>PHONE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EMAIL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WEB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>INSPE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TWIR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KCEPS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BOT</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SYS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VOICE</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>KCMPD</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>EDC</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CMO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MAIL</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>EIP</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>FAX</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>WALK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D827-4B8E-A895-27A3C8DC0D9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moderate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>PHONE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EMAIL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WEB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>INSPE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TWIR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KCEPS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BOT</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SYS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VOICE</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>KCMPD</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>EDC</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CMO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MAIL</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>EIP</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>FAX</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>WALK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>20468</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D827-4B8E-A895-27A3C8DC0D9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>PHONE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EMAIL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WEB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>INSPE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TWIR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KCEPS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BOT</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SYS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VOICE</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>KCMPD</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>EDC</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CMO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MAIL</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>EIP</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>FAX</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>WALK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1471</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D827-4B8E-A895-27A3C8DC0D9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1715585295"/>
+        <c:axId val="1464650255"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1715585295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1464650255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1464650255"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1715585295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9FF9DE-08D4-40A3-A018-470E53CF04F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,7 +1746,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,5 +2004,6 @@
     <sortCondition ref="A1:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>